--- a/biology/Zoologie/Gorgoniidae/Gorgoniidae.xlsx
+++ b/biology/Zoologie/Gorgoniidae/Gorgoniidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gorgoniidae sont une famille de cnidaires anthozoaires, des gorgones de l'ordre des Alcyonacea.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'origine, les membres de la famille des Gorgoniidae comprenaient une gamme de genres beaucoup plus large qu'aujourd'hui et étaient utilisés pour tous les Octocorallia cornés. Maintenant, il est limité aux espèces où les "spicules calcaires mesurent moins de 0,3 mm. De longueur, sculptés avec des ceintures régulièrement disposées de tubercules compliqués (verrues'), les anthocodies sont relativement inermes, au plus avec quelques formes plates tiges en chevron sous chaque tentacule, le cylindre axial corné est faiblement localisé, voire pas du tout, et est perforé par une corde centrale relativement étroite et chambrée, et dans laquelle les rameaux sont généralement assez minces, avec une corticale mince[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'origine, les membres de la famille des Gorgoniidae comprenaient une gamme de genres beaucoup plus large qu'aujourd'hui et étaient utilisés pour tous les Octocorallia cornés. Maintenant, il est limité aux espèces où les "spicules calcaires mesurent moins de 0,3 mm. De longueur, sculptés avec des ceintures régulièrement disposées de tubercules compliqués (verrues'), les anthocodies sont relativement inermes, au plus avec quelques formes plates tiges en chevron sous chaque tentacule, le cylindre axial corné est faiblement localisé, voire pas du tout, et est perforé par une corde centrale relativement étroite et chambrée, et dans laquelle les rameaux sont généralement assez minces, avec une corticale mince.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (6 janvier 2015)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (6 janvier 2015) :
 genre Adelogorgia Bayer, 1958
 genre Antillogorgia Bayer, 1951
 genre Eugorgia Verrill, 1868
